--- a/Mint/ParasitismShooting/stage/stage1.xlsx
+++ b/Mint/ParasitismShooting/stage/stage1.xlsx
@@ -1008,7 +1008,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1322,7 +1322,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="K9">
         <v>60</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="K10">
         <v>60</v>
